--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="206">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -624,13 +624,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>RBL Pipeline-9</t>
-  </si>
-  <si>
-    <t>AML Pipeline-8</t>
-  </si>
-  <si>
-    <t>RBL Pipeline-8</t>
+    <t>Data Location File</t>
+  </si>
+  <si>
+    <t>SPLIT_JOIN_TRANSPOSE_demogh_data_13580_JOIN_AGGREGATE_PROJECT_JOIN_SLIDE_Account_segment_13572_Submitteddate_</t>
+  </si>
+  <si>
+    <t>RBL Pipeline-6</t>
+  </si>
+  <si>
+    <t>AML Pipeline-6</t>
   </si>
 </sst>
 </file>
@@ -699,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -713,6 +716,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="H37" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1166,9 @@
       <c r="H4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1169,13 +1177,13 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>204</v>
@@ -1184,15 +1192,17 @@
         <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2336,10 +2346,10 @@
         <v>161</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2420,10 +2430,10 @@
         <v>189</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3121,6 +3131,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -630,10 +630,10 @@
     <t>SPLIT_JOIN_TRANSPOSE_demogh_data_13580_JOIN_AGGREGATE_PROJECT_JOIN_SLIDE_Account_segment_13572_Submitteddate_</t>
   </si>
   <si>
-    <t>RBL Pipeline-6</t>
-  </si>
-  <si>
-    <t>AML Pipeline-6</t>
+    <t>AML Pipeline-15</t>
+  </si>
+  <si>
+    <t>RBL Pipeline-15</t>
   </si>
 </sst>
 </file>
@@ -1186,16 +1186,16 @@
         <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>163</v>
@@ -2346,10 +2346,10 @@
         <v>161</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2430,10 +2430,10 @@
         <v>189</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -591,21 +591,12 @@
     <t>Automation Name</t>
   </si>
   <si>
-    <t>JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_16511</t>
-  </si>
-  <si>
-    <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_16511_</t>
-  </si>
-  <si>
     <t>32000</t>
   </si>
   <si>
     <t>s3n://com.tookitaki.preprod.product-2/transformation_output/SPLIT_JOIN_TRANSPOSE_demogh_data_</t>
   </si>
   <si>
-    <t>ENCODE_Data2_16</t>
-  </si>
-  <si>
     <t>uploadFile</t>
   </si>
   <si>
@@ -630,10 +621,19 @@
     <t>SPLIT_JOIN_TRANSPOSE_demogh_data_13580_JOIN_AGGREGATE_PROJECT_JOIN_SLIDE_Account_segment_13572_Submitteddate_</t>
   </si>
   <si>
-    <t>AML Pipeline-15</t>
-  </si>
-  <si>
-    <t>RBL Pipeline-15</t>
+    <t>ENCODE_Data2_</t>
+  </si>
+  <si>
+    <t>JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
+  </si>
+  <si>
+    <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
+  </si>
+  <si>
+    <t>RBL Pipeline-22</t>
+  </si>
+  <si>
+    <t>AML Pipeline-22</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -1100,10 +1100,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1122,7 +1122,7 @@
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -1167,7 +1167,7 @@
         <v>162</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1183,25 +1183,25 @@
         <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>163</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1315,7 +1315,7 @@
         <v>141</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>43</v>
@@ -2270,7 +2270,7 @@
     <row r="39" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>166</v>
@@ -2325,16 +2325,16 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>171</v>
@@ -2346,10 +2346,10 @@
         <v>161</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2430,10 +2430,10 @@
         <v>189</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2464,7 +2464,7 @@
     <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -630,10 +630,10 @@
     <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
   </si>
   <si>
-    <t>RBL Pipeline-22</t>
-  </si>
-  <si>
-    <t>AML Pipeline-22</t>
+    <t>AML Pipeline-24</t>
+  </si>
+  <si>
+    <t>RBL Pipeline-24</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I40" workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
@@ -1183,19 +1183,19 @@
         <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>163</v>
@@ -2346,10 +2346,10 @@
         <v>161</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2430,10 +2430,10 @@
         <v>189</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -630,10 +630,10 @@
     <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
   </si>
   <si>
-    <t>AML Pipeline-24</t>
-  </si>
-  <si>
-    <t>RBL Pipeline-24</t>
+    <t>RBL Pipeline-33</t>
+  </si>
+  <si>
+    <t>AML Pipeline-33</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I40" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,19 +1183,19 @@
         <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>163</v>
@@ -2346,10 +2346,10 @@
         <v>161</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2430,10 +2430,10 @@
         <v>189</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -630,10 +630,10 @@
     <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
   </si>
   <si>
-    <t>RBL Pipeline-33</t>
-  </si>
-  <si>
-    <t>AML Pipeline-33</t>
+    <t>RBL Pipeline-49</t>
+  </si>
+  <si>
+    <t>AML Pipeline-49</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -630,10 +630,10 @@
     <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
   </si>
   <si>
-    <t>RBL Pipeline-49</t>
-  </si>
-  <si>
-    <t>AML Pipeline-49</t>
+    <t>RBL Pipeline-48</t>
+  </si>
+  <si>
+    <t>AML Pipeline-48</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -633,7 +633,7 @@
     <t>RBL Pipeline-48</t>
   </si>
   <si>
-    <t>AML Pipeline-48</t>
+    <t>AML Pipeline-47</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -630,10 +630,10 @@
     <t>FILTER_JOIN_Data2_ENCODE_Data2_13186-2017-06-15T08-57-57_</t>
   </si>
   <si>
-    <t>RBL Pipeline-48</t>
-  </si>
-  <si>
-    <t>AML Pipeline-47</t>
+    <t>AML Pipeline-46</t>
+  </si>
+  <si>
+    <t>RBL Pipeline-46</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,19 +1183,19 @@
         <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>163</v>
@@ -2346,10 +2346,10 @@
         <v>161</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2430,10 +2430,10 @@
         <v>189</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
